--- a/协议/驱动协议.xlsx
+++ b/协议/驱动协议.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_place\逆流器项目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_place\My_project\iUpstream\协议\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52DD5A78-F957-488A-884B-8DD931DD0DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F70CEF-B3D8-423E-8EED-F29E0375643C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="15277" windowHeight="12457" activeTab="1" xr2:uid="{B29DBDEA-2DED-4EA3-BF4D-9F15BE0809F1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{B29DBDEA-2DED-4EA3-BF4D-9F15BE0809F1}"/>
   </bookViews>
   <sheets>
     <sheet name="协议" sheetId="5" r:id="rId1"/>
@@ -19,10 +19,18 @@
     <sheet name="crc" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1385,146 +1393,146 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1980,7 +1988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1699225-4ED0-430B-AFE8-BAAB339105C7}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -2710,9 +2718,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76E86A8-01A2-4512-B56C-210D87DDA518}">
   <dimension ref="A1:FG149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13:E14"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2751,8 +2759,8 @@
       <c r="I1" s="13"/>
       <c r="J1" s="19"/>
       <c r="ER1" s="5"/>
-      <c r="ES1" s="110"/>
-      <c r="ET1" s="110"/>
+      <c r="ES1" s="79"/>
+      <c r="ET1" s="79"/>
       <c r="EU1" s="2"/>
       <c r="EV1" s="2"/>
       <c r="EW1" s="3"/>
@@ -2768,19 +2776,19 @@
       <c r="FG1" s="3"/>
     </row>
     <row r="2" spans="1:163" ht="20.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
       <c r="J2" s="19"/>
       <c r="ER2" s="22"/>
       <c r="ES2" s="23"/>
-      <c r="ET2" s="112" t="s">
+      <c r="ET2" s="81" t="s">
         <v>1</v>
       </c>
       <c r="EU2" s="24" t="s">
@@ -2789,58 +2797,58 @@
       <c r="EV2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="EW2" s="115" t="s">
+      <c r="EW2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="EX2" s="116"/>
-      <c r="EY2" s="116"/>
-      <c r="EZ2" s="116"/>
-      <c r="FA2" s="116"/>
-      <c r="FB2" s="116"/>
-      <c r="FC2" s="116"/>
-      <c r="FD2" s="117"/>
-      <c r="FE2" s="118" t="s">
+      <c r="EX2" s="85"/>
+      <c r="EY2" s="85"/>
+      <c r="EZ2" s="85"/>
+      <c r="FA2" s="85"/>
+      <c r="FB2" s="85"/>
+      <c r="FC2" s="85"/>
+      <c r="FD2" s="86"/>
+      <c r="FE2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="FF2" s="119"/>
+      <c r="FF2" s="88"/>
       <c r="FG2" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:163" ht="20.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="120"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
       <c r="J3" s="19"/>
       <c r="ER3" s="22"/>
       <c r="ES3" s="23"/>
-      <c r="ET3" s="113"/>
+      <c r="ET3" s="82"/>
       <c r="EU3" s="26" t="s">
         <v>7</v>
       </c>
       <c r="EV3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="EW3" s="121" t="s">
+      <c r="EW3" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="EX3" s="122"/>
-      <c r="EY3" s="122"/>
-      <c r="EZ3" s="122"/>
-      <c r="FA3" s="122"/>
-      <c r="FB3" s="122"/>
-      <c r="FC3" s="122"/>
-      <c r="FD3" s="123"/>
-      <c r="FE3" s="124" t="s">
+      <c r="EX3" s="91"/>
+      <c r="EY3" s="91"/>
+      <c r="EZ3" s="91"/>
+      <c r="FA3" s="91"/>
+      <c r="FB3" s="91"/>
+      <c r="FC3" s="91"/>
+      <c r="FD3" s="92"/>
+      <c r="FE3" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="FF3" s="125"/>
+      <c r="FF3" s="94"/>
       <c r="FG3" s="26" t="s">
         <v>11</v>
       </c>
@@ -2850,19 +2858,19 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="19"/>
       <c r="ER4" s="22"/>
       <c r="ES4" s="23"/>
-      <c r="ET4" s="113"/>
-      <c r="EU4" s="97" t="s">
+      <c r="ET4" s="82"/>
+      <c r="EU4" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="EV4" s="99" t="s">
+      <c r="EV4" s="105" t="s">
         <v>13</v>
       </c>
       <c r="EW4" s="27" t="s">
@@ -2880,10 +2888,10 @@
       <c r="FA4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="FB4" s="101" t="s">
+      <c r="FB4" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="FC4" s="102"/>
+      <c r="FC4" s="108"/>
       <c r="FD4" s="27" t="s">
         <v>19</v>
       </c>
@@ -2893,7 +2901,7 @@
       <c r="FF4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="FG4" s="103" t="s">
+      <c r="FG4" s="109" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2902,30 +2910,30 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
       <c r="J5" s="19"/>
       <c r="ER5" s="22"/>
       <c r="ES5" s="23"/>
-      <c r="ET5" s="114"/>
-      <c r="EU5" s="98"/>
-      <c r="EV5" s="100"/>
+      <c r="ET5" s="83"/>
+      <c r="EU5" s="104"/>
+      <c r="EV5" s="106"/>
       <c r="EW5" s="29"/>
       <c r="EX5" s="29"/>
       <c r="EY5" s="29"/>
       <c r="EZ5" s="29"/>
       <c r="FA5" s="29"/>
-      <c r="FB5" s="106"/>
-      <c r="FC5" s="107"/>
+      <c r="FB5" s="112"/>
+      <c r="FC5" s="113"/>
       <c r="FD5" s="27"/>
-      <c r="FE5" s="108" t="s">
+      <c r="FE5" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="FF5" s="109"/>
-      <c r="FG5" s="104"/>
+      <c r="FF5" s="115"/>
+      <c r="FG5" s="110"/>
     </row>
     <row r="6" spans="1:163" ht="17.25" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
@@ -3004,7 +3012,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="20"/>
       <c r="J8" s="19"/>
-      <c r="ER8" s="89" t="s">
+      <c r="ER8" s="95" t="s">
         <v>26</v>
       </c>
       <c r="ES8" s="36" t="s">
@@ -3046,7 +3054,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="20"/>
       <c r="J9" s="19"/>
-      <c r="ER9" s="90"/>
+      <c r="ER9" s="96"/>
       <c r="ES9" s="22"/>
       <c r="ET9" s="22"/>
       <c r="EU9" s="44"/>
@@ -3064,17 +3072,17 @@
       <c r="FG9" s="48"/>
     </row>
     <row r="10" spans="1:163" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
       <c r="I10" s="15"/>
       <c r="J10" s="19"/>
-      <c r="ER10" s="91"/>
+      <c r="ER10" s="97"/>
       <c r="ES10" s="36" t="s">
         <v>30</v>
       </c>
@@ -3088,16 +3096,16 @@
       <c r="EW10" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="EX10" s="93" t="s">
+      <c r="EX10" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="EY10" s="94"/>
-      <c r="EZ10" s="94"/>
-      <c r="FA10" s="94"/>
-      <c r="FB10" s="94"/>
-      <c r="FC10" s="94"/>
-      <c r="FD10" s="94"/>
-      <c r="FE10" s="95"/>
+      <c r="EY10" s="100"/>
+      <c r="EZ10" s="100"/>
+      <c r="FA10" s="100"/>
+      <c r="FB10" s="100"/>
+      <c r="FC10" s="100"/>
+      <c r="FD10" s="100"/>
+      <c r="FE10" s="101"/>
       <c r="FF10" s="39" t="s">
         <v>20</v>
       </c>
@@ -3265,45 +3273,45 @@
       <c r="ED12" s="4"/>
     </row>
     <row r="13" spans="1:163" s="5" customFormat="1" ht="23.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="124" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="124" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="79" t="s">
+      <c r="E13" s="124" t="s">
         <v>179</v>
       </c>
-      <c r="F13" s="79" t="s">
+      <c r="F13" s="124" t="s">
         <v>180</v>
       </c>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
     </row>
     <row r="14" spans="1:163" s="5" customFormat="1" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
+      <c r="A14" s="124"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="55" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="84" t="s">
+      <c r="H14" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="84"/>
+      <c r="I14" s="125"/>
       <c r="J14" s="55" t="s">
         <v>178</v>
       </c>
@@ -3333,28 +3341,28 @@
       <c r="B16" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="119" t="s">
         <v>219</v>
       </c>
-      <c r="E16" s="86" t="s">
+      <c r="E16" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="81" t="s">
+      <c r="F16" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="81" t="s">
+      <c r="G16" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="85" t="s">
+      <c r="H16" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="81" t="s">
+      <c r="I16" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="81" t="s">
+      <c r="J16" s="118" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3365,14 +3373,14 @@
       <c r="B17" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
     </row>
     <row r="18" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
@@ -3381,28 +3389,28 @@
       <c r="B18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="82" t="s">
+      <c r="E18" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="80" t="s">
+      <c r="F18" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="80" t="s">
+      <c r="G18" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="83" t="s">
+      <c r="H18" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="80" t="s">
+      <c r="I18" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="80" t="s">
+      <c r="J18" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3413,14 +3421,14 @@
       <c r="B19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
     </row>
     <row r="20" spans="1:10" s="67" customFormat="1" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="62">
@@ -3429,28 +3437,28 @@
       <c r="B20" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="E20" s="86" t="s">
+      <c r="E20" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="81" t="s">
+      <c r="F20" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="81" t="s">
+      <c r="G20" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="85" t="s">
+      <c r="H20" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="81" t="s">
+      <c r="I20" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="J20" s="81" t="s">
+      <c r="J20" s="118" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3461,14 +3469,14 @@
       <c r="B21" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
     </row>
     <row r="22" spans="1:10" s="67" customFormat="1" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="62">
@@ -3477,14 +3485,14 @@
       <c r="B22" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="23" spans="1:10" s="67" customFormat="1" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="62">
@@ -3493,14 +3501,14 @@
       <c r="B23" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
     </row>
     <row r="24" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="11">
@@ -3509,26 +3517,26 @@
       <c r="B24" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="80" t="s">
+      <c r="F24" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="80" t="s">
+      <c r="G24" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="83" t="s">
+      <c r="H24" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80" t="s">
+      <c r="I24" s="117"/>
+      <c r="J24" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3539,14 +3547,14 @@
       <c r="B25" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
     </row>
     <row r="26" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11">
@@ -3555,14 +3563,14 @@
       <c r="B26" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="117"/>
     </row>
     <row r="27" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="11">
@@ -3571,14 +3579,14 @@
       <c r="B27" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="117"/>
     </row>
     <row r="28" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="11">
@@ -3587,26 +3595,26 @@
       <c r="B28" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="82" t="s">
+      <c r="D28" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="82" t="s">
+      <c r="E28" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="80" t="s">
+      <c r="F28" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="80" t="s">
+      <c r="G28" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="83" t="s">
+      <c r="H28" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80" t="s">
+      <c r="I28" s="117"/>
+      <c r="J28" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3617,14 +3625,14 @@
       <c r="B29" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="117"/>
     </row>
     <row r="30" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
@@ -3633,14 +3641,14 @@
       <c r="B30" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="117"/>
     </row>
     <row r="31" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="11">
@@ -3649,14 +3657,14 @@
       <c r="B31" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="117"/>
     </row>
     <row r="32" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="11">
@@ -3665,26 +3673,26 @@
       <c r="B32" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C32" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="82" t="s">
+      <c r="D32" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="82" t="s">
+      <c r="E32" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="80" t="s">
+      <c r="F32" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="80" t="s">
+      <c r="G32" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="83" t="s">
+      <c r="H32" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80" t="s">
+      <c r="I32" s="117"/>
+      <c r="J32" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3695,14 +3703,14 @@
       <c r="B33" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="117"/>
     </row>
     <row r="34" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="11">
@@ -3711,14 +3719,14 @@
       <c r="B34" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="80"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
     </row>
     <row r="35" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="11">
@@ -3727,14 +3735,14 @@
       <c r="B35" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
     </row>
     <row r="36" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="11">
@@ -3743,26 +3751,26 @@
       <c r="B36" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="80" t="s">
+      <c r="C36" s="117" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="82" t="s">
+      <c r="D36" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="82" t="s">
+      <c r="E36" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="80" t="s">
+      <c r="F36" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="80" t="s">
+      <c r="G36" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="H36" s="83" t="s">
+      <c r="H36" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80" t="s">
+      <c r="I36" s="117"/>
+      <c r="J36" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3773,14 +3781,14 @@
       <c r="B37" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
     </row>
     <row r="38" spans="1:10" s="67" customFormat="1" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="62">
@@ -3789,26 +3797,26 @@
       <c r="B38" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="81" t="s">
+      <c r="C38" s="118" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="86" t="s">
+      <c r="D38" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="E38" s="88" t="s">
+      <c r="E38" s="122" t="s">
         <v>216</v>
       </c>
-      <c r="F38" s="81" t="s">
+      <c r="F38" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="81" t="s">
+      <c r="G38" s="118" t="s">
         <v>215</v>
       </c>
-      <c r="H38" s="85" t="s">
+      <c r="H38" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81" t="s">
+      <c r="I38" s="118"/>
+      <c r="J38" s="118" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3819,14 +3827,14 @@
       <c r="B39" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="118"/>
     </row>
     <row r="40" spans="1:10" s="67" customFormat="1" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="62">
@@ -3835,14 +3843,14 @@
       <c r="B40" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="81"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="118"/>
     </row>
     <row r="41" spans="1:10" s="67" customFormat="1" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="62">
@@ -3851,14 +3859,14 @@
       <c r="B41" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="118"/>
     </row>
     <row r="42" spans="1:10" s="67" customFormat="1" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="62">
@@ -3867,28 +3875,28 @@
       <c r="B42" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="81" t="s">
+      <c r="C42" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="86" t="s">
+      <c r="D42" s="119" t="s">
         <v>222</v>
       </c>
-      <c r="E42" s="86" t="s">
+      <c r="E42" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="81" t="s">
+      <c r="F42" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="81" t="s">
+      <c r="G42" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="H42" s="85" t="s">
+      <c r="H42" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="I42" s="81" t="s">
+      <c r="I42" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="J42" s="81" t="s">
+      <c r="J42" s="118" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3899,14 +3907,14 @@
       <c r="B43" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="81"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="118"/>
+      <c r="J43" s="118"/>
     </row>
     <row r="44" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="11">
@@ -3915,26 +3923,26 @@
       <c r="B44" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="80" t="s">
+      <c r="C44" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="82" t="s">
+      <c r="D44" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="87" t="s">
+      <c r="E44" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="80" t="s">
+      <c r="F44" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="80" t="s">
+      <c r="G44" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="H44" s="83" t="s">
+      <c r="H44" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80" t="s">
+      <c r="I44" s="117"/>
+      <c r="J44" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3945,14 +3953,14 @@
       <c r="B45" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="80"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="121"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="117"/>
+      <c r="J45" s="117"/>
     </row>
     <row r="46" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="11">
@@ -3961,14 +3969,14 @@
       <c r="B46" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="121"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="117"/>
     </row>
     <row r="47" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="11">
@@ -3977,14 +3985,14 @@
       <c r="B47" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="80"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="117"/>
     </row>
     <row r="48" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="11">
@@ -3993,26 +4001,26 @@
       <c r="B48" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="80" t="s">
+      <c r="C48" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="82" t="s">
+      <c r="D48" s="121" t="s">
         <v>107</v>
       </c>
-      <c r="E48" s="82" t="s">
+      <c r="E48" s="121" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="80" t="s">
+      <c r="F48" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="80" t="s">
+      <c r="G48" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="83" t="s">
+      <c r="H48" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80" t="s">
+      <c r="I48" s="117"/>
+      <c r="J48" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4023,14 +4031,14 @@
       <c r="B49" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="80"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="117"/>
+      <c r="J49" s="117"/>
     </row>
     <row r="50" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="11">
@@ -4039,14 +4047,14 @@
       <c r="B50" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="80"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="117"/>
+      <c r="J50" s="117"/>
     </row>
     <row r="51" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="11">
@@ -4055,14 +4063,14 @@
       <c r="B51" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="80"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="121"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="117"/>
+      <c r="J51" s="117"/>
     </row>
     <row r="52" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="11">
@@ -4071,26 +4079,26 @@
       <c r="B52" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="80" t="s">
+      <c r="C52" s="117" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="82" t="s">
+      <c r="D52" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="E52" s="82" t="s">
+      <c r="E52" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="F52" s="80" t="s">
+      <c r="F52" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="G52" s="80" t="s">
+      <c r="G52" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="H52" s="83" t="s">
+      <c r="H52" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80" t="s">
+      <c r="I52" s="117"/>
+      <c r="J52" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4101,14 +4109,14 @@
       <c r="B53" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="80"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="121"/>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="117"/>
+      <c r="J53" s="117"/>
     </row>
     <row r="54" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="11">
@@ -4117,14 +4125,14 @@
       <c r="B54" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="80"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="121"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="117"/>
+      <c r="J54" s="117"/>
     </row>
     <row r="55" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="11">
@@ -4133,14 +4141,14 @@
       <c r="B55" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="80"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="80"/>
-      <c r="J55" s="80"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="121"/>
+      <c r="F55" s="117"/>
+      <c r="G55" s="117"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="117"/>
+      <c r="J55" s="117"/>
     </row>
     <row r="56" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="11">
@@ -4149,26 +4157,26 @@
       <c r="B56" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="80" t="s">
+      <c r="C56" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="D56" s="82" t="s">
+      <c r="D56" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="E56" s="82" t="s">
+      <c r="E56" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="F56" s="80" t="s">
+      <c r="F56" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="G56" s="80" t="s">
+      <c r="G56" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="H56" s="83" t="s">
+      <c r="H56" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="I56" s="80"/>
-      <c r="J56" s="80" t="s">
+      <c r="I56" s="117"/>
+      <c r="J56" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4179,14 +4187,14 @@
       <c r="B57" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="80"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="121"/>
+      <c r="F57" s="117"/>
+      <c r="G57" s="117"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="117"/>
+      <c r="J57" s="117"/>
     </row>
     <row r="58" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="11">
@@ -4195,14 +4203,14 @@
       <c r="B58" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="80"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="121"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="117"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="117"/>
+      <c r="J58" s="117"/>
     </row>
     <row r="59" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="11">
@@ -4211,14 +4219,14 @@
       <c r="B59" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="80"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="121"/>
+      <c r="E59" s="121"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="117"/>
+      <c r="H59" s="116"/>
+      <c r="I59" s="117"/>
+      <c r="J59" s="117"/>
     </row>
     <row r="60" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="11">
@@ -4227,26 +4235,26 @@
       <c r="B60" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="80" t="s">
+      <c r="C60" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="D60" s="82" t="s">
+      <c r="D60" s="121" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="82" t="s">
+      <c r="E60" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="F60" s="80" t="s">
+      <c r="F60" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="G60" s="80" t="s">
+      <c r="G60" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="H60" s="83" t="s">
+      <c r="H60" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80" t="s">
+      <c r="I60" s="117"/>
+      <c r="J60" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4257,14 +4265,14 @@
       <c r="B61" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="80"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="121"/>
+      <c r="E61" s="121"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="117"/>
+      <c r="J61" s="117"/>
     </row>
     <row r="62" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="11">
@@ -4273,14 +4281,14 @@
       <c r="B62" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="80"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="80"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="80"/>
-      <c r="J62" s="80"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="121"/>
+      <c r="E62" s="121"/>
+      <c r="F62" s="117"/>
+      <c r="G62" s="117"/>
+      <c r="H62" s="116"/>
+      <c r="I62" s="117"/>
+      <c r="J62" s="117"/>
     </row>
     <row r="63" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="11">
@@ -4289,14 +4297,14 @@
       <c r="B63" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C63" s="80"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="83"/>
-      <c r="I63" s="80"/>
-      <c r="J63" s="80"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="121"/>
+      <c r="E63" s="121"/>
+      <c r="F63" s="117"/>
+      <c r="G63" s="117"/>
+      <c r="H63" s="116"/>
+      <c r="I63" s="117"/>
+      <c r="J63" s="117"/>
     </row>
     <row r="64" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="11">
@@ -4305,22 +4313,22 @@
       <c r="B64" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="80" t="s">
+      <c r="C64" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="D64" s="82" t="s">
+      <c r="D64" s="121" t="s">
         <v>135</v>
       </c>
-      <c r="E64" s="82"/>
-      <c r="F64" s="80" t="s">
+      <c r="E64" s="121"/>
+      <c r="F64" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="G64" s="80" t="s">
+      <c r="G64" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="H64" s="83"/>
-      <c r="I64" s="80"/>
-      <c r="J64" s="80" t="s">
+      <c r="H64" s="116"/>
+      <c r="I64" s="117"/>
+      <c r="J64" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4331,14 +4339,14 @@
       <c r="B65" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="80"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="80"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="83"/>
-      <c r="I65" s="80"/>
-      <c r="J65" s="80"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="121"/>
+      <c r="E65" s="121"/>
+      <c r="F65" s="117"/>
+      <c r="G65" s="117"/>
+      <c r="H65" s="116"/>
+      <c r="I65" s="117"/>
+      <c r="J65" s="117"/>
     </row>
     <row r="66" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="11">
@@ -4347,14 +4355,14 @@
       <c r="B66" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C66" s="80"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="80"/>
+      <c r="C66" s="117"/>
+      <c r="D66" s="121"/>
+      <c r="E66" s="121"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="117"/>
+      <c r="H66" s="116"/>
+      <c r="I66" s="117"/>
+      <c r="J66" s="117"/>
     </row>
     <row r="67" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="11">
@@ -4363,14 +4371,14 @@
       <c r="B67" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="80"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="80"/>
-      <c r="G67" s="80"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="80"/>
-      <c r="J67" s="80"/>
+      <c r="C67" s="117"/>
+      <c r="D67" s="121"/>
+      <c r="E67" s="121"/>
+      <c r="F67" s="117"/>
+      <c r="G67" s="117"/>
+      <c r="H67" s="116"/>
+      <c r="I67" s="117"/>
+      <c r="J67" s="117"/>
     </row>
     <row r="68" spans="1:10" s="67" customFormat="1" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="62">
@@ -4403,22 +4411,22 @@
       <c r="B69" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="80" t="s">
+      <c r="C69" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="D69" s="82" t="s">
+      <c r="D69" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="E69" s="82"/>
-      <c r="F69" s="80" t="s">
+      <c r="E69" s="121"/>
+      <c r="F69" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="G69" s="80" t="s">
+      <c r="G69" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="H69" s="83"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80" t="s">
+      <c r="H69" s="116"/>
+      <c r="I69" s="117"/>
+      <c r="J69" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4429,14 +4437,14 @@
       <c r="B70" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C70" s="80"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="80"/>
-      <c r="G70" s="80"/>
-      <c r="H70" s="83"/>
-      <c r="I70" s="80"/>
-      <c r="J70" s="80"/>
+      <c r="C70" s="117"/>
+      <c r="D70" s="121"/>
+      <c r="E70" s="121"/>
+      <c r="F70" s="117"/>
+      <c r="G70" s="117"/>
+      <c r="H70" s="116"/>
+      <c r="I70" s="117"/>
+      <c r="J70" s="117"/>
     </row>
     <row r="71" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="11">
@@ -4445,14 +4453,14 @@
       <c r="B71" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="80"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="82"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="83"/>
-      <c r="I71" s="80"/>
-      <c r="J71" s="80"/>
+      <c r="C71" s="117"/>
+      <c r="D71" s="121"/>
+      <c r="E71" s="121"/>
+      <c r="F71" s="117"/>
+      <c r="G71" s="117"/>
+      <c r="H71" s="116"/>
+      <c r="I71" s="117"/>
+      <c r="J71" s="117"/>
     </row>
     <row r="72" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="11">
@@ -4461,14 +4469,14 @@
       <c r="B72" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="80"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="80"/>
-      <c r="G72" s="80"/>
-      <c r="H72" s="83"/>
-      <c r="I72" s="80"/>
-      <c r="J72" s="80"/>
+      <c r="C72" s="117"/>
+      <c r="D72" s="121"/>
+      <c r="E72" s="121"/>
+      <c r="F72" s="117"/>
+      <c r="G72" s="117"/>
+      <c r="H72" s="116"/>
+      <c r="I72" s="117"/>
+      <c r="J72" s="117"/>
     </row>
     <row r="73" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="11">
@@ -4497,26 +4505,26 @@
       <c r="B74" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="81" t="s">
+      <c r="C74" s="118" t="s">
         <v>151</v>
       </c>
-      <c r="D74" s="86" t="s">
+      <c r="D74" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="E74" s="86"/>
-      <c r="F74" s="81" t="s">
+      <c r="E74" s="119"/>
+      <c r="F74" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="G74" s="81" t="s">
+      <c r="G74" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="H74" s="85" t="s">
+      <c r="H74" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="I74" s="81" t="s">
+      <c r="I74" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="J74" s="81" t="s">
+      <c r="J74" s="118" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4527,14 +4535,14 @@
       <c r="B75" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="C75" s="81"/>
-      <c r="D75" s="86"/>
-      <c r="E75" s="86"/>
-      <c r="F75" s="81"/>
-      <c r="G75" s="81"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="81"/>
-      <c r="J75" s="81"/>
+      <c r="C75" s="118"/>
+      <c r="D75" s="119"/>
+      <c r="E75" s="119"/>
+      <c r="F75" s="118"/>
+      <c r="G75" s="118"/>
+      <c r="H75" s="120"/>
+      <c r="I75" s="118"/>
+      <c r="J75" s="118"/>
     </row>
     <row r="76" spans="1:10" s="67" customFormat="1" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="62">
@@ -4543,24 +4551,24 @@
       <c r="B76" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="81"/>
-      <c r="D76" s="86" t="s">
+      <c r="C76" s="118"/>
+      <c r="D76" s="119" t="s">
         <v>155</v>
       </c>
-      <c r="E76" s="86"/>
-      <c r="F76" s="81" t="s">
+      <c r="E76" s="119"/>
+      <c r="F76" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="G76" s="81" t="s">
+      <c r="G76" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="H76" s="85" t="s">
+      <c r="H76" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="I76" s="81" t="s">
+      <c r="I76" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="J76" s="81" t="s">
+      <c r="J76" s="118" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4571,14 +4579,14 @@
       <c r="B77" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="C77" s="81"/>
-      <c r="D77" s="86"/>
-      <c r="E77" s="86"/>
-      <c r="F77" s="81"/>
-      <c r="G77" s="81"/>
-      <c r="H77" s="85"/>
-      <c r="I77" s="81"/>
-      <c r="J77" s="81"/>
+      <c r="C77" s="118"/>
+      <c r="D77" s="119"/>
+      <c r="E77" s="119"/>
+      <c r="F77" s="118"/>
+      <c r="G77" s="118"/>
+      <c r="H77" s="120"/>
+      <c r="I77" s="118"/>
+      <c r="J77" s="118"/>
     </row>
     <row r="78" spans="1:10" s="67" customFormat="1" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="62">
@@ -4587,24 +4595,24 @@
       <c r="B78" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="C78" s="81"/>
-      <c r="D78" s="86" t="s">
+      <c r="C78" s="118"/>
+      <c r="D78" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="E78" s="86"/>
-      <c r="F78" s="81" t="s">
+      <c r="E78" s="119"/>
+      <c r="F78" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="G78" s="81" t="s">
+      <c r="G78" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="H78" s="85" t="s">
+      <c r="H78" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="I78" s="81" t="s">
+      <c r="I78" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="J78" s="81" t="s">
+      <c r="J78" s="118" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4615,14 +4623,14 @@
       <c r="B79" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="C79" s="81"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="86"/>
-      <c r="F79" s="81"/>
-      <c r="G79" s="81"/>
-      <c r="H79" s="85"/>
-      <c r="I79" s="81"/>
-      <c r="J79" s="81"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="119"/>
+      <c r="E79" s="119"/>
+      <c r="F79" s="118"/>
+      <c r="G79" s="118"/>
+      <c r="H79" s="120"/>
+      <c r="I79" s="118"/>
+      <c r="J79" s="118"/>
     </row>
     <row r="80" spans="1:10" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="11">
@@ -4631,26 +4639,26 @@
       <c r="B80" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="80" t="s">
+      <c r="C80" s="117" t="s">
         <v>161</v>
       </c>
-      <c r="D80" s="82" t="s">
+      <c r="D80" s="121" t="s">
         <v>162</v>
       </c>
-      <c r="E80" s="82" t="s">
+      <c r="E80" s="121" t="s">
         <v>163</v>
       </c>
-      <c r="F80" s="80" t="s">
+      <c r="F80" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="G80" s="80" t="s">
+      <c r="G80" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="H80" s="83" t="s">
+      <c r="H80" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="I80" s="80"/>
-      <c r="J80" s="80" t="s">
+      <c r="I80" s="117"/>
+      <c r="J80" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4661,14 +4669,14 @@
       <c r="B81" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C81" s="80"/>
-      <c r="D81" s="82"/>
-      <c r="E81" s="82"/>
-      <c r="F81" s="80"/>
-      <c r="G81" s="80"/>
-      <c r="H81" s="83"/>
-      <c r="I81" s="80"/>
-      <c r="J81" s="80"/>
+      <c r="C81" s="117"/>
+      <c r="D81" s="121"/>
+      <c r="E81" s="121"/>
+      <c r="F81" s="117"/>
+      <c r="G81" s="117"/>
+      <c r="H81" s="116"/>
+      <c r="I81" s="117"/>
+      <c r="J81" s="117"/>
     </row>
     <row r="82" spans="1:163" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="11">
@@ -4677,14 +4685,14 @@
       <c r="B82" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C82" s="80"/>
-      <c r="D82" s="82"/>
-      <c r="E82" s="82"/>
-      <c r="F82" s="80"/>
-      <c r="G82" s="80"/>
-      <c r="H82" s="83"/>
-      <c r="I82" s="80"/>
-      <c r="J82" s="80"/>
+      <c r="C82" s="117"/>
+      <c r="D82" s="121"/>
+      <c r="E82" s="121"/>
+      <c r="F82" s="117"/>
+      <c r="G82" s="117"/>
+      <c r="H82" s="116"/>
+      <c r="I82" s="117"/>
+      <c r="J82" s="117"/>
     </row>
     <row r="83" spans="1:163" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="11">
@@ -4693,14 +4701,14 @@
       <c r="B83" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C83" s="80"/>
-      <c r="D83" s="82"/>
-      <c r="E83" s="82"/>
-      <c r="F83" s="80"/>
-      <c r="G83" s="80"/>
-      <c r="H83" s="83"/>
-      <c r="I83" s="80"/>
-      <c r="J83" s="80"/>
+      <c r="C83" s="117"/>
+      <c r="D83" s="121"/>
+      <c r="E83" s="121"/>
+      <c r="F83" s="117"/>
+      <c r="G83" s="117"/>
+      <c r="H83" s="116"/>
+      <c r="I83" s="117"/>
+      <c r="J83" s="117"/>
     </row>
     <row r="84" spans="1:163" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="11">
@@ -4709,26 +4717,26 @@
       <c r="B84" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="80" t="s">
+      <c r="C84" s="117" t="s">
         <v>168</v>
       </c>
-      <c r="D84" s="82" t="s">
+      <c r="D84" s="121" t="s">
         <v>173</v>
       </c>
-      <c r="E84" s="82" t="s">
+      <c r="E84" s="121" t="s">
         <v>169</v>
       </c>
-      <c r="F84" s="80" t="s">
+      <c r="F84" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="G84" s="80" t="s">
+      <c r="G84" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="H84" s="83" t="s">
+      <c r="H84" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="I84" s="80"/>
-      <c r="J84" s="80" t="s">
+      <c r="I84" s="117"/>
+      <c r="J84" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4739,16 +4747,16 @@
       <c r="B85" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C85" s="80">
+      <c r="C85" s="117">
         <v>21</v>
       </c>
-      <c r="D85" s="82"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="80"/>
-      <c r="G85" s="80"/>
-      <c r="H85" s="83"/>
-      <c r="I85" s="80"/>
-      <c r="J85" s="80"/>
+      <c r="D85" s="121"/>
+      <c r="E85" s="121"/>
+      <c r="F85" s="117"/>
+      <c r="G85" s="117"/>
+      <c r="H85" s="116"/>
+      <c r="I85" s="117"/>
+      <c r="J85" s="117"/>
     </row>
     <row r="86" spans="1:163" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="11">
@@ -4757,16 +4765,16 @@
       <c r="B86" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="80">
+      <c r="C86" s="117">
         <v>22</v>
       </c>
-      <c r="D86" s="82"/>
-      <c r="E86" s="82"/>
-      <c r="F86" s="80"/>
-      <c r="G86" s="80"/>
-      <c r="H86" s="83"/>
-      <c r="I86" s="80"/>
-      <c r="J86" s="80"/>
+      <c r="D86" s="121"/>
+      <c r="E86" s="121"/>
+      <c r="F86" s="117"/>
+      <c r="G86" s="117"/>
+      <c r="H86" s="116"/>
+      <c r="I86" s="117"/>
+      <c r="J86" s="117"/>
     </row>
     <row r="87" spans="1:163" ht="19.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="11">
@@ -4775,16 +4783,16 @@
       <c r="B87" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C87" s="80">
+      <c r="C87" s="117">
         <v>23</v>
       </c>
-      <c r="D87" s="82"/>
-      <c r="E87" s="82"/>
-      <c r="F87" s="80"/>
-      <c r="G87" s="80"/>
-      <c r="H87" s="83"/>
-      <c r="I87" s="80"/>
-      <c r="J87" s="80"/>
+      <c r="D87" s="121"/>
+      <c r="E87" s="121"/>
+      <c r="F87" s="117"/>
+      <c r="G87" s="117"/>
+      <c r="H87" s="116"/>
+      <c r="I87" s="117"/>
+      <c r="J87" s="117"/>
     </row>
     <row r="88" spans="1:163" s="78" customFormat="1" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="72">
@@ -7095,153 +7103,30 @@
     </row>
   </sheetData>
   <mergeCells count="195">
-    <mergeCell ref="ES1:ET1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="ET2:ET5"/>
-    <mergeCell ref="EW2:FD2"/>
-    <mergeCell ref="FE2:FF2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="EW3:FD3"/>
-    <mergeCell ref="FE3:FF3"/>
-    <mergeCell ref="ER8:ER10"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="EX10:FE10"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="EU4:EU5"/>
-    <mergeCell ref="EV4:EV5"/>
-    <mergeCell ref="FB4:FC4"/>
-    <mergeCell ref="FG4:FG5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="FB5:FC5"/>
-    <mergeCell ref="FE5:FF5"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="I44:I47"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="H48:H51"/>
-    <mergeCell ref="I48:I51"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="F52:F55"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="H69:H72"/>
-    <mergeCell ref="I69:I72"/>
-    <mergeCell ref="C74:C79"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="G69:G72"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="G80:G83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="J60:J63"/>
+    <mergeCell ref="J64:J67"/>
+    <mergeCell ref="J69:J72"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E60:E63"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="H52:H55"/>
+    <mergeCell ref="I52:I55"/>
     <mergeCell ref="J76:J77"/>
     <mergeCell ref="F13:J13"/>
     <mergeCell ref="J38:J41"/>
@@ -7266,30 +7151,153 @@
     <mergeCell ref="H64:H67"/>
     <mergeCell ref="I64:I67"/>
     <mergeCell ref="H60:H63"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="J60:J63"/>
-    <mergeCell ref="J64:J67"/>
-    <mergeCell ref="J69:J72"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="I60:I63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="F64:F67"/>
-    <mergeCell ref="G64:G67"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="I56:I59"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E60:E63"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="H52:H55"/>
-    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="G80:G83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="H69:H72"/>
+    <mergeCell ref="I69:I72"/>
+    <mergeCell ref="C74:C79"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="G69:G72"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="F52:F55"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="ER8:ER10"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="EX10:FE10"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="EU4:EU5"/>
+    <mergeCell ref="EV4:EV5"/>
+    <mergeCell ref="FB4:FC4"/>
+    <mergeCell ref="FG4:FG5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="FB5:FC5"/>
+    <mergeCell ref="FE5:FF5"/>
+    <mergeCell ref="ES1:ET1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="ET2:ET5"/>
+    <mergeCell ref="EW2:FD2"/>
+    <mergeCell ref="FE2:FF2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="EW3:FD3"/>
+    <mergeCell ref="FE3:FF3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7314,7 +7322,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="1:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="124" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="58" t="s">
@@ -7341,7 +7349,7 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="79"/>
+      <c r="A3" s="124"/>
       <c r="B3" s="59" t="s">
         <v>192</v>
       </c>
@@ -7383,7 +7391,7 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="124" t="s">
         <v>198</v>
       </c>
       <c r="B5" s="58" t="s">
@@ -7412,7 +7420,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="79"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="59" t="s">
         <v>192</v>
       </c>
